--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\htcs\cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714E96A1-6C88-42EC-A5DE-B6CAB3A4B69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CFE5E4-ECB1-4CA5-804A-E1313D757E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3E127AB1-1721-4FBE-A634-F5C639A762F6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Question</t>
   </si>
@@ -258,13 +258,40 @@
   </si>
   <si>
     <t>we have to alternatively merge one element from the front and one element from the back of the list  but it is not possible to traverse backwards from the tail in a singley linked list so we use fast and slow ptr to find the middle of the list and then reverse the second half of the list , so that it is essentially the same as traversing  backwards and then merge the list alternatively one by one</t>
+  </si>
+  <si>
+    <t>19_Remove_Nth_Node_From_End_Of_LL</t>
+  </si>
+  <si>
+    <t>find the length of the list ; do len - n to find the index of the elment to be deleted</t>
+  </si>
+  <si>
+    <t>138_Copy_LinkedList_with_Random_Pointer</t>
+  </si>
+  <si>
+    <t>make an unordered map having 2 node types ; in um store the current node and in the corresponding value store a new node having the same val as the old node val ; in another loop , um[curr]-&gt;next =um[curr-&gt;next] , same for random instead of next use random</t>
+  </si>
+  <si>
+    <t>2_Add_Two_Numbers</t>
+  </si>
+  <si>
+    <t>take digits from both list ; extract digit as sum % 10 and extract carry as sum / 10 ; sum = dig1 + dig2 + carry</t>
+  </si>
+  <si>
+    <t>Find_The_Duplicate_Number_LL</t>
+  </si>
+  <si>
+    <t>Floyd's Cycle detection : If there's no cycle, fast reaches `nullptr`; if there's a cycle, slow and fast will meet somewhere inside it, and resetting one to head and moving both one step at a time will lead to the cycle's entry point.</t>
+  </si>
+  <si>
+    <t>Topic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,8 +323,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,8 +355,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -659,6 +699,15 @@
       </right>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -681,7 +730,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -857,10 +906,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -868,6 +917,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1230,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6014387B-E759-45C6-8386-A3088964E96E}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,6 +1305,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="65"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1580,42 +1642,59 @@
       <c r="C33" s="57"/>
       <c r="D33" s="58"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="63" t="s">
         <v>73</v>
       </c>
       <c r="C34" s="57"/>
       <c r="D34" s="58"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
-      <c r="B35" s="56"/>
+      <c r="A35" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="56" t="s">
+        <v>75</v>
+      </c>
       <c r="C35" s="57"/>
       <c r="D35" s="58"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="42"/>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="64" t="s">
+        <v>77</v>
+      </c>
       <c r="C36" s="57"/>
       <c r="D36" s="58"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="42"/>
+      <c r="A37" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>79</v>
+      </c>
       <c r="C37" s="57"/>
       <c r="D37" s="58"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="43"/>
-      <c r="B38" s="44"/>
+      <c r="A38" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="44" t="s">
+        <v>81</v>
+      </c>
       <c r="C38" s="61"/>
       <c r="D38" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="C21:D27"/>
     <mergeCell ref="C2:D10"/>
     <mergeCell ref="C11:D15"/>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\htcs\cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CFE5E4-ECB1-4CA5-804A-E1313D757E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A990C65-C6F2-4CAD-8966-463770BCE40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3E127AB1-1721-4FBE-A634-F5C639A762F6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Question</t>
   </si>
@@ -285,6 +285,36 @@
   </si>
   <si>
     <t>Topic</t>
+  </si>
+  <si>
+    <t>226_Invert_Binary_Tree</t>
+  </si>
+  <si>
+    <t>The base case is that root shouldn’t be null otherwise return root ; we swap left of root with right of root and then recursively call the function for root-&gt;left subtree and root-&gt;right sub tree</t>
+  </si>
+  <si>
+    <t>104_Maximum_Depth_Of_BTree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">same base case ; inside the function we store the recursive answers in 2 variables for the left and right subtree in the end we compare  to find the maximum of them and return 1 + maximum </t>
+  </si>
+  <si>
+    <t>543_Diameter_Of_BTree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has a helper function that performs DFS , it stores the values of left tree depth and right tree depth in x and y just like prev question but instead of comparing them we compare the current maximum with l+r and return 1 + maximum </t>
+  </si>
+  <si>
+    <t>110_Balanced_BTree</t>
+  </si>
+  <si>
+    <t>same as diameter question ; in this we just have to subtract the absolute value and check that it never exceeds 1 ; if it does return -1 as error flag</t>
+  </si>
+  <si>
+    <t>100_Same_BTree</t>
+  </si>
+  <si>
+    <t>check if either both are null then return true ; if either of them is null then return false ; if values don’t match return false ; recursively call for left and right subtree store it in bool val and return l&amp;&amp;r</t>
   </si>
 </sst>
 </file>
@@ -730,7 +760,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -862,6 +892,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -959,8 +995,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{75D71FAD-F5F6-4DD4-BB66-535D9EB6CEE5}" name="Table1" displayName="Table1" ref="A1:B38" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A1:B38" xr:uid="{75D71FAD-F5F6-4DD4-BB66-535D9EB6CEE5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{75D71FAD-F5F6-4DD4-BB66-535D9EB6CEE5}" name="Table1" displayName="Table1" ref="A1:B51" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:B51" xr:uid="{75D71FAD-F5F6-4DD4-BB66-535D9EB6CEE5}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{40E3CF3B-38E7-468C-A6C1-76DDE934DFFF}" name="Question" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{9ED227DF-AF87-4098-A7B8-0FAA1D1C619B}" name="Approach" dataDxfId="0"/>
@@ -1286,10 +1322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6014387B-E759-45C6-8386-A3088964E96E}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,10 +1341,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="65"/>
+      <c r="D1" s="67"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1529,7 +1565,7 @@
       <c r="D22" s="20"/>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="49" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="40" t="s">
@@ -1549,7 +1585,7 @@
       <c r="D24" s="20"/>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="49" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="40" t="s">
@@ -1582,95 +1618,95 @@
       <c r="A28" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="49"/>
+      <c r="D28" s="51"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
     </row>
     <row r="30" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="53"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="55"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="58"/>
+      <c r="D31" s="60"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="58"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="60"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="58"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="60"/>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="58"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="60"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="58"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="60"/>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="58"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="60"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="s">
@@ -1679,8 +1715,8 @@
       <c r="B37" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="58"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="60"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="43" t="s">
@@ -1689,8 +1725,80 @@
       <c r="B38" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="62"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="64"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="45"/>
+      <c r="B44" s="46"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="45"/>
+      <c r="B45" s="46"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="45"/>
+      <c r="B46" s="46"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="45"/>
+      <c r="B47" s="46"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="45"/>
+      <c r="B48" s="46"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="45"/>
+      <c r="B49" s="46"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="45"/>
+      <c r="B50" s="46"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="45"/>
+      <c r="B51" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="7">
